--- a/Experiment3/TerrenceRobExperiment3.xlsx
+++ b/Experiment3/TerrenceRobExperiment3.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Terrence" sheetId="1" r:id="rId1"/>
-    <sheet name="SpringForce" sheetId="3" r:id="rId2"/>
-    <sheet name="Rob" sheetId="2" r:id="rId3"/>
+    <sheet name="Energy" sheetId="4" r:id="rId2"/>
+    <sheet name="SpringForce" sheetId="3" r:id="rId3"/>
+    <sheet name="Rob" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Monitor Run</t>
   </si>
@@ -166,7 +167,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -237,7 +238,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,11 +414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1578237552"/>
-        <c:axId val="1578241328"/>
+        <c:axId val="1581866896"/>
+        <c:axId val="1647343648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1578237552"/>
+        <c:axId val="1581866896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,12 +530,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1578241328"/>
+        <c:crossAx val="1647343648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1578241328"/>
+        <c:axId val="1647343648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1578237552"/>
+        <c:crossAx val="1581866896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -764,7 +765,7 @@
           <c:x val="0.127190769675412"/>
           <c:y val="0.0349883983048746"/>
           <c:w val="0.830600232228557"/>
-          <c:h val="0.709909727389304"/>
+          <c:h val="0.681959189749239"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2054,11 +2055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1605879312"/>
-        <c:axId val="1645395760"/>
+        <c:axId val="1647663120"/>
+        <c:axId val="1647381952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1605879312"/>
+        <c:axId val="1647663120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,13 +2099,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Average Displacement ,(m)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Average Displacement, x(m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.372814459270001"/>
+              <c:y val="0.785913546868844"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2156,7 +2164,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2171,12 +2179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645395760"/>
+        <c:crossAx val="1647381952"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1645395760"/>
+        <c:axId val="1647381952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,8 +2224,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Average Energy, (J)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Average Energy, E(J)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2280,7 +2288,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2295,7 +2303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1605879312"/>
+        <c:crossAx val="1647663120"/>
         <c:crossesAt val="-0.15"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2363,7 +2371,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3530,8 +3538,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>469025</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3818,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3928,7 +3936,7 @@
         <v>5.4139199999999998E-2</v>
       </c>
       <c r="H6">
-        <f>E6+F6</f>
+        <f t="shared" ref="H6:H37" si="0">E6+F6</f>
         <v>5.4139199999999998E-2</v>
       </c>
       <c r="L6">
@@ -3965,19 +3973,19 @@
         <v>-0.13200000000000001</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C65" si="0">(B7+B8)/2</f>
+        <f t="shared" ref="C7:C65" si="1">(B7+B8)/2</f>
         <v>-0.13</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D65" si="1">(A7+A8)/2</f>
+        <f t="shared" ref="D7:D65" si="2">(A7+A8)/2</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E65" si="2">0.5*6.0156*(C7^2)</f>
+        <f t="shared" ref="E7:E65" si="3">0.5*6.0156*(C7^2)</f>
         <v>5.0831820000000007E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F65" si="3">G7-E7</f>
+        <f t="shared" ref="F7:F65" si="4">G7-E7</f>
         <v>2.8017999999999099E-4</v>
       </c>
       <c r="G7">
@@ -3985,29 +3993,29 @@
         <v>5.1111999999999998E-2</v>
       </c>
       <c r="H7">
-        <f>E7+F7</f>
+        <f t="shared" si="0"/>
         <v>5.1111999999999998E-2</v>
       </c>
       <c r="L7">
         <v>100</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M11" si="4">L7/1000</f>
+        <f t="shared" ref="M7:M11" si="5">L7/1000</f>
         <v>0.1</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N11" si="5">M7*9.8</f>
+        <f t="shared" ref="N7:N11" si="6">M7*9.8</f>
         <v>0.98000000000000009</v>
       </c>
       <c r="O7">
         <v>168.4</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P11" si="6">O7/100</f>
+        <f t="shared" ref="P7:P11" si="7">O7/100</f>
         <v>1.6840000000000002</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q11" si="7">P7-1.522</f>
+        <f t="shared" ref="Q7:Q11" si="8">P7-1.522</f>
         <v>0.16200000000000014</v>
       </c>
       <c r="V7">
@@ -4022,19 +4030,19 @@
         <v>-0.128</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.126</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7751832800000005E-2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2569671999999918E-3</v>
       </c>
       <c r="G8">
@@ -4042,29 +4050,29 @@
         <v>5.5008799999999997E-2</v>
       </c>
       <c r="H8">
-        <f>E8+F8</f>
+        <f t="shared" si="0"/>
         <v>5.5008799999999997E-2</v>
       </c>
       <c r="L8">
         <v>60</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58799999999999997</v>
       </c>
       <c r="O8">
         <v>162.1</v>
       </c>
       <c r="P8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.621</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.8999999999999977E-2</v>
       </c>
       <c r="V8">
@@ -4079,19 +4087,19 @@
         <v>-0.124</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.122</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4768095199999997E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0537504800000007E-2</v>
       </c>
       <c r="G9">
@@ -4099,29 +4107,29 @@
         <v>5.5305600000000003E-2</v>
       </c>
       <c r="H9">
-        <f>E9+F9</f>
+        <f t="shared" si="0"/>
         <v>5.5305600000000003E-2</v>
       </c>
       <c r="L9">
         <v>35</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34300000000000008</v>
       </c>
       <c r="O9">
         <v>157.80000000000001</v>
       </c>
       <c r="P9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5780000000000001</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.600000000000005E-2</v>
       </c>
       <c r="V9">
@@ -4136,49 +4144,49 @@
         <v>-0.12</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>4.1880607199999996E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>1.2221792800000006E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G63" si="9">-0.0008*(C10)+0.054008</f>
+        <v>5.4102400000000002E-2</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>-0.11799999999999999</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>5.5E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>4.1880607199999996E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>1.2221792800000006E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ref="G7:G65" si="8">-0.0008*(C10)+0.054008</f>
-        <v>5.4102400000000002E-2</v>
-      </c>
-      <c r="H10">
-        <f>E10+F10</f>
         <v>5.4102400000000002E-2</v>
       </c>
       <c r="L10">
         <v>20</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19600000000000001</v>
       </c>
       <c r="O10">
         <v>155.4</v>
       </c>
       <c r="P10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.554</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2000000000000028E-2</v>
       </c>
       <c r="V10">
@@ -4193,19 +4201,19 @@
         <v>-0.11600000000000001</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.114</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9089368800000003E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5809831199999999E-2</v>
       </c>
       <c r="G11">
@@ -4213,29 +4221,29 @@
         <v>5.4899200000000002E-2</v>
       </c>
       <c r="H11">
-        <f>E11+F11</f>
+        <f t="shared" si="0"/>
         <v>5.4899200000000002E-2</v>
       </c>
       <c r="L11">
         <v>5</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O11">
         <v>153</v>
       </c>
       <c r="P11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.53</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="V11">
@@ -4250,27 +4258,27 @@
         <v>-0.112</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-0.11</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>3.6394379999999997E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>1.7701620000000001E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>5.4095999999999998E-2</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>-0.11</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>3.6394379999999997E-2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>1.7701620000000001E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="8"/>
-        <v>5.4095999999999998E-2</v>
-      </c>
-      <c r="H12">
-        <f>E12+F12</f>
         <v>5.4095999999999998E-2</v>
       </c>
       <c r="V12">
@@ -4285,19 +4293,19 @@
         <v>-0.108</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.106</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3795640799999999E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0497159200000004E-2</v>
       </c>
       <c r="G13">
@@ -4305,7 +4313,7 @@
         <v>5.4292800000000002E-2</v>
       </c>
       <c r="H13">
-        <f>E13+F13</f>
+        <f t="shared" si="0"/>
         <v>5.4292800000000002E-2</v>
       </c>
       <c r="V13">
@@ -4320,27 +4328,27 @@
         <v>-0.104</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-0.10200000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>3.1293151200000008E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>2.2796448799999994E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>5.4089600000000002E-2</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>-0.10200000000000001</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>3.1293151200000008E-2</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>2.2796448799999994E-2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="8"/>
-        <v>5.4089600000000002E-2</v>
-      </c>
-      <c r="H14">
-        <f>E14+F14</f>
         <v>5.4089600000000002E-2</v>
       </c>
       <c r="V14">
@@ -4355,19 +4363,19 @@
         <v>-0.1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.8000000000000004E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8886911200000004E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5499488799999998E-2</v>
       </c>
       <c r="G15">
@@ -4375,7 +4383,7 @@
         <v>5.4386400000000001E-2</v>
       </c>
       <c r="H15">
-        <f>E15+F15</f>
+        <f t="shared" si="0"/>
         <v>5.4386400000000001E-2</v>
       </c>
       <c r="V15">
@@ -4390,19 +4398,19 @@
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.4E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10500000000000001</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6576920800000001E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7506279199999997E-2</v>
       </c>
       <c r="G16">
@@ -4410,7 +4418,7 @@
         <v>5.4083199999999998E-2</v>
       </c>
       <c r="H16">
-        <f>E16+F16</f>
+        <f t="shared" si="0"/>
         <v>5.4083199999999998E-2</v>
       </c>
       <c r="V16">
@@ -4425,19 +4433,19 @@
         <v>-9.1999999999999998E-2</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.09</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4363179999999998E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9216820000000004E-2</v>
       </c>
       <c r="G17">
@@ -4445,7 +4453,7 @@
         <v>5.3580000000000003E-2</v>
       </c>
       <c r="H17">
-        <f>E17+F17</f>
+        <f t="shared" si="0"/>
         <v>5.3580000000000003E-2</v>
       </c>
       <c r="V17">
@@ -4460,27 +4468,27 @@
         <v>-8.7999999999999995E-2</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>2.2245688799999996E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>3.1831111200000005E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>5.4076800000000001E-2</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>2.2245688799999996E-2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>3.1831111200000005E-2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="8"/>
-        <v>5.4076800000000001E-2</v>
-      </c>
-      <c r="H18">
-        <f>E18+F18</f>
         <v>5.4076800000000001E-2</v>
       </c>
       <c r="V18">
@@ -4495,19 +4503,19 @@
         <v>-8.4000000000000005E-2</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.2000000000000003E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0224447200000002E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3549152799999996E-2</v>
       </c>
       <c r="G19">
@@ -4515,7 +4523,7 @@
         <v>5.3773599999999998E-2</v>
       </c>
       <c r="H19">
-        <f>E19+F19</f>
+        <f t="shared" si="0"/>
         <v>5.3773599999999998E-2</v>
       </c>
       <c r="V19">
@@ -4530,19 +4538,19 @@
         <v>-0.08</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.8E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8299455200000002E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5570944799999997E-2</v>
       </c>
       <c r="G20">
@@ -4550,7 +4558,7 @@
         <v>5.3870399999999999E-2</v>
       </c>
       <c r="H20">
-        <f>E20+F20</f>
+        <f t="shared" si="0"/>
         <v>5.3870399999999999E-2</v>
       </c>
       <c r="V20">
@@ -4565,27 +4573,27 @@
         <v>-7.5999999999999998E-2</v>
       </c>
       <c r="C21">
+        <f t="shared" si="1"/>
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>1.6918875E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>3.7149124999999998E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="9"/>
+        <v>5.4067999999999998E-2</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>1.6918875E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>3.7149124999999998E-2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="8"/>
-        <v>5.4067999999999998E-2</v>
-      </c>
-      <c r="H21">
-        <f>E21+F21</f>
         <v>5.4067999999999998E-2</v>
       </c>
       <c r="V21">
@@ -4600,19 +4608,19 @@
         <v>-7.3999999999999996E-2</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.2999999999999995E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14500000000000002</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.60285662E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9430633800000003E-2</v>
       </c>
       <c r="G22">
@@ -4620,7 +4628,7 @@
         <v>5.54592E-2</v>
       </c>
       <c r="H22">
-        <f>E22+F22</f>
+        <f t="shared" si="0"/>
         <v>5.54592E-2</v>
       </c>
       <c r="V22">
@@ -4635,27 +4643,27 @@
         <v>-7.1999999999999995E-2</v>
       </c>
       <c r="C23">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1.4738220000000002E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>3.9325779999999998E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>5.4064000000000001E-2</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>1.4738220000000002E-2</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>3.9325779999999998E-2</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="8"/>
-        <v>5.4064000000000001E-2</v>
-      </c>
-      <c r="H23">
-        <f>E23+F23</f>
         <v>5.4064000000000001E-2</v>
       </c>
       <c r="V23">
@@ -4670,19 +4678,19 @@
         <v>-6.8000000000000005E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.6000000000000003E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.155</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3101976800000002E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1958823199999995E-2</v>
       </c>
       <c r="G24">
@@ -4690,7 +4698,7 @@
         <v>5.50608E-2</v>
       </c>
       <c r="H24">
-        <f>E24+F24</f>
+        <f t="shared" si="0"/>
         <v>5.5060799999999993E-2</v>
       </c>
       <c r="V24">
@@ -4705,19 +4713,19 @@
         <v>-6.4000000000000001E-2</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.2E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1561983199999999E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3495616799999998E-2</v>
       </c>
       <c r="G25">
@@ -4725,7 +4733,7 @@
         <v>5.5057599999999998E-2</v>
       </c>
       <c r="H25">
-        <f>E25+F25</f>
+        <f t="shared" si="0"/>
         <v>5.5057599999999998E-2</v>
       </c>
       <c r="V25">
@@ -4740,27 +4748,27 @@
         <v>-0.06</v>
       </c>
       <c r="C26">
+        <f t="shared" si="1"/>
+        <v>-5.7999999999999996E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>1.0118239199999999E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>4.3936160800000006E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>5.4054400000000002E-2</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
-        <v>-5.7999999999999996E-2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0.17</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>1.0118239199999999E-2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>4.3936160800000006E-2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="8"/>
-        <v>5.4054400000000002E-2</v>
-      </c>
-      <c r="H26">
-        <f>E26+F26</f>
         <v>5.4054400000000002E-2</v>
       </c>
       <c r="V26">
@@ -4775,19 +4783,19 @@
         <v>-5.6000000000000001E-2</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.3999999999999999E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.770744799999999E-3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4880455200000002E-2</v>
       </c>
       <c r="G27">
@@ -4795,7 +4803,7 @@
         <v>5.3651200000000003E-2</v>
       </c>
       <c r="H27">
-        <f>E27+F27</f>
+        <f t="shared" si="0"/>
         <v>5.3651200000000003E-2</v>
       </c>
       <c r="V27">
@@ -4810,27 +4818,27 @@
         <v>-5.1999999999999998E-2</v>
       </c>
       <c r="C28">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>7.5195000000000019E-3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>4.65285E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>5.4047999999999999E-2</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>7.5195000000000019E-3</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>4.65285E-2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="8"/>
-        <v>5.4047999999999999E-2</v>
-      </c>
-      <c r="H28">
-        <f>E28+F28</f>
         <v>5.4047999999999999E-2</v>
       </c>
       <c r="V28">
@@ -4845,19 +4853,19 @@
         <v>-4.8000000000000001E-2</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.5999999999999999E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.185</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3645047999999994E-3</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7573095199999998E-2</v>
       </c>
       <c r="G29">
@@ -4865,7 +4873,7 @@
         <v>5.3937599999999995E-2</v>
       </c>
       <c r="H29">
-        <f>E29+F29</f>
+        <f t="shared" si="0"/>
         <v>5.3937599999999995E-2</v>
       </c>
       <c r="V29">
@@ -4880,27 +4888,27 @@
         <v>-4.3999999999999997E-2</v>
       </c>
       <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-4.1999999999999996E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>5.3057591999999994E-3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>4.8735840799999999E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>5.4041600000000002E-2</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
-        <v>-4.1999999999999996E-2</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>0.19</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>5.3057591999999994E-3</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
-        <v>4.8735840799999999E-2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="8"/>
-        <v>5.4041600000000002E-2</v>
-      </c>
-      <c r="H30">
-        <f>E30+F30</f>
         <v>5.4041599999999995E-2</v>
       </c>
       <c r="V30">
@@ -4915,27 +4923,27 @@
         <v>-0.04</v>
       </c>
       <c r="C31">
+        <f t="shared" si="1"/>
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>4.3432632000000001E-3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>4.9695136799999998E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>5.40384E-2</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>4.3432632000000001E-3</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>4.9695136799999998E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="8"/>
-        <v>5.40384E-2</v>
-      </c>
-      <c r="H31">
-        <f>E31+F31</f>
         <v>5.40384E-2</v>
       </c>
       <c r="V31">
@@ -4950,19 +4958,19 @@
         <v>-3.5999999999999997E-2</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.4000000000000002E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20500000000000002</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4770168000000006E-3</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0750983199999995E-2</v>
       </c>
       <c r="G32">
@@ -4970,7 +4978,7 @@
         <v>5.4227999999999998E-2</v>
       </c>
       <c r="H32">
-        <f>E32+F32</f>
+        <f t="shared" si="0"/>
         <v>5.4227999999999998E-2</v>
       </c>
       <c r="V32">
@@ -4985,19 +4993,19 @@
         <v>-3.2000000000000001E-2</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.03</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7070200000000001E-3</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1424980000000009E-2</v>
       </c>
       <c r="G33">
@@ -5005,7 +5013,7 @@
         <v>5.4132000000000007E-2</v>
       </c>
       <c r="H33">
-        <f>E33+F33</f>
+        <f t="shared" si="0"/>
         <v>5.4132000000000007E-2</v>
       </c>
       <c r="V33">
@@ -5020,19 +5028,19 @@
         <v>-2.8000000000000001E-2</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.6000000000000002E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.215</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0332728000000007E-3</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3188327200000003E-2</v>
       </c>
       <c r="G34">
@@ -5040,7 +5048,7 @@
         <v>5.5221600000000003E-2</v>
       </c>
       <c r="H34">
-        <f>E34+F34</f>
+        <f t="shared" si="0"/>
         <v>5.5221600000000003E-2</v>
       </c>
       <c r="V34">
@@ -5055,19 +5063,19 @@
         <v>-2.4E-2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1999999999999999E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4557751999999999E-3</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2769824799999997E-2</v>
       </c>
       <c r="G35">
@@ -5075,7 +5083,7 @@
         <v>5.4225599999999999E-2</v>
       </c>
       <c r="H35">
-        <f>E35+F35</f>
+        <f t="shared" si="0"/>
         <v>5.4225599999999999E-2</v>
       </c>
       <c r="V35">
@@ -5090,19 +5098,19 @@
         <v>-0.02</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.8000000000000002E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7452720000000017E-4</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3147872800000003E-2</v>
       </c>
       <c r="G36">
@@ -5110,7 +5118,7 @@
         <v>5.4122400000000001E-2</v>
       </c>
       <c r="H36">
-        <f>E36+F36</f>
+        <f t="shared" si="0"/>
         <v>5.4122400000000001E-2</v>
       </c>
       <c r="V36">
@@ -5125,27 +5133,27 @@
         <v>-1.6E-2</v>
       </c>
       <c r="C37">
+        <f t="shared" si="1"/>
+        <v>-1.4E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.23</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>5.8952880000000003E-4</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>5.3429671200000001E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>5.4019200000000003E-2</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="0"/>
-        <v>-1.4E-2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>0.23</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>5.8952880000000003E-4</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>5.3429671200000001E-2</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="8"/>
-        <v>5.4019200000000003E-2</v>
-      </c>
-      <c r="H37">
-        <f>E37+F37</f>
         <v>5.4019200000000003E-2</v>
       </c>
       <c r="V37">
@@ -5160,19 +5168,19 @@
         <v>-1.2E-2</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.01</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23499999999999999</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0078E-4</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3615219999999998E-2</v>
       </c>
       <c r="G38">
@@ -5180,7 +5188,7 @@
         <v>5.3915999999999999E-2</v>
       </c>
       <c r="H38">
-        <f>E38+F38</f>
+        <f t="shared" ref="H38:H65" si="10">E38+F38</f>
         <v>5.3915999999999999E-2</v>
       </c>
       <c r="V38">
@@ -5195,19 +5203,19 @@
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.082808E-4</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4197319200000003E-2</v>
       </c>
       <c r="G39">
@@ -5215,7 +5223,7 @@
         <v>5.4305600000000002E-2</v>
       </c>
       <c r="H39">
-        <f>E39+F39</f>
+        <f t="shared" si="10"/>
         <v>5.4305600000000002E-2</v>
       </c>
       <c r="V39">
@@ -5230,19 +5238,19 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2E-3</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.245</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2031199999999999E-5</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3790368800000002E-2</v>
       </c>
       <c r="G40">
@@ -5250,7 +5258,7 @@
         <v>5.38024E-2</v>
       </c>
       <c r="H40">
-        <f>E40+F40</f>
+        <f t="shared" si="10"/>
         <v>5.38024E-2</v>
       </c>
       <c r="V40">
@@ -5265,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2E-3</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2031199999999999E-5</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3794368800000006E-2</v>
       </c>
       <c r="G41">
@@ -5285,7 +5293,7 @@
         <v>5.3806400000000004E-2</v>
       </c>
       <c r="H41">
-        <f>E41+F41</f>
+        <f t="shared" si="10"/>
         <v>5.3806400000000004E-2</v>
       </c>
       <c r="V41">
@@ -5300,19 +5308,19 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.255</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.082808E-4</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3994919200000005E-2</v>
       </c>
       <c r="G42">
@@ -5320,7 +5328,7 @@
         <v>5.4103200000000004E-2</v>
       </c>
       <c r="H42">
-        <f>E42+F42</f>
+        <f t="shared" si="10"/>
         <v>5.4103200000000004E-2</v>
       </c>
       <c r="V42">
@@ -5335,19 +5343,19 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0078E-4</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4099219999999996E-2</v>
       </c>
       <c r="G43" s="7">
@@ -5355,7 +5363,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="H43">
-        <f>E43+F43</f>
+        <f t="shared" si="10"/>
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="V43">
@@ -5370,27 +5378,27 @@
         <v>1.2E-2</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26500000000000001</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8952880000000003E-4</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3407271199999995E-2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3996799999999998E-2</v>
       </c>
       <c r="H44">
-        <f>E44+F44</f>
+        <f t="shared" si="10"/>
         <v>5.3996799999999998E-2</v>
       </c>
       <c r="V44">
@@ -5405,19 +5413,19 @@
         <v>1.6E-2</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7452720000000017E-4</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3219072800000003E-2</v>
       </c>
       <c r="G45">
@@ -5425,7 +5433,7 @@
         <v>5.4193600000000001E-2</v>
       </c>
       <c r="H45">
-        <f>E45+F45</f>
+        <f t="shared" si="10"/>
         <v>5.4193600000000001E-2</v>
       </c>
       <c r="V45">
@@ -5440,27 +5448,27 @@
         <v>0.02</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4557751999999999E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2534624799999999E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3990400000000001E-2</v>
       </c>
       <c r="H46">
-        <f>E46+F46</f>
+        <f t="shared" si="10"/>
         <v>5.3990400000000001E-2</v>
       </c>
       <c r="V46">
@@ -5475,19 +5483,19 @@
         <v>2.4E-2</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28500000000000003</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0332728000000007E-3</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2353927199999997E-2</v>
       </c>
       <c r="G47">
@@ -5495,7 +5503,7 @@
         <v>5.4387199999999997E-2</v>
       </c>
       <c r="H47">
-        <f>E47+F47</f>
+        <f t="shared" si="10"/>
         <v>5.4387199999999997E-2</v>
       </c>
       <c r="V47">
@@ -5510,27 +5518,27 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7070200000000001E-3</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.127698E-2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3983999999999997E-2</v>
       </c>
       <c r="H48">
-        <f>E48+F48</f>
+        <f t="shared" si="10"/>
         <v>5.3983999999999997E-2</v>
       </c>
       <c r="V48">
@@ -5545,27 +5553,27 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29499999999999998</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4770168000000006E-3</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0503783199999999E-2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3980800000000002E-2</v>
       </c>
       <c r="H49">
-        <f>E49+F49</f>
+        <f t="shared" si="10"/>
         <v>5.3980800000000002E-2</v>
       </c>
       <c r="V49">
@@ -5580,27 +5588,27 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3432632000000001E-3</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9634336799999998E-2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3977600000000001E-2</v>
       </c>
       <c r="H50">
-        <f>E50+F50</f>
+        <f t="shared" si="10"/>
         <v>5.3977600000000001E-2</v>
       </c>
       <c r="V50">
@@ -5615,19 +5623,19 @@
         <v>0.04</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1999999999999996E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30499999999999999</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3057591999999994E-3</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8361440800000002E-2</v>
       </c>
       <c r="G51">
@@ -5635,7 +5643,7 @@
         <v>5.3667199999999998E-2</v>
       </c>
       <c r="H51">
-        <f>E51+F51</f>
+        <f t="shared" si="10"/>
         <v>5.3667199999999998E-2</v>
       </c>
       <c r="V51">
@@ -5650,27 +5658,27 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3645047999999994E-3</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7606695200000007E-2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3971200000000004E-2</v>
       </c>
       <c r="H52">
-        <f>E52+F52</f>
+        <f t="shared" si="10"/>
         <v>5.3971200000000004E-2</v>
       </c>
       <c r="V52">
@@ -5685,19 +5693,19 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.315</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5195000000000019E-3</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6041299999999993E-2</v>
       </c>
       <c r="G53">
@@ -5705,7 +5713,7 @@
         <v>5.3560799999999999E-2</v>
       </c>
       <c r="H53">
-        <f>E53+F53</f>
+        <f t="shared" si="10"/>
         <v>5.3560799999999992E-2</v>
       </c>
       <c r="V53">
@@ -5720,27 +5728,27 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.770744799999999E-3</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.51940552E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.39648E-2</v>
       </c>
       <c r="H54">
-        <f>E54+F54</f>
+        <f t="shared" si="10"/>
         <v>5.39648E-2</v>
       </c>
       <c r="V54">
@@ -5755,19 +5763,19 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0118239199999999E-2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.40433608E-2</v>
       </c>
       <c r="G55">
@@ -5775,7 +5783,7 @@
         <v>5.4161599999999997E-2</v>
       </c>
       <c r="H55">
-        <f>E55+F55</f>
+        <f t="shared" si="10"/>
         <v>5.4161599999999997E-2</v>
       </c>
       <c r="V55">
@@ -5790,19 +5798,19 @@
         <v>0.06</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33500000000000002</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1561983199999999E-2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2196416800000004E-2</v>
       </c>
       <c r="G56">
@@ -5810,7 +5818,7 @@
         <v>5.3758400000000005E-2</v>
       </c>
       <c r="H56">
-        <f>E56+F56</f>
+        <f t="shared" si="10"/>
         <v>5.3758400000000005E-2</v>
       </c>
       <c r="V56">
@@ -5825,27 +5833,27 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3101976800000002E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0853223199999997E-2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3955200000000002E-2</v>
       </c>
       <c r="H57">
-        <f>E57+F57</f>
+        <f t="shared" si="10"/>
         <v>5.3955199999999995E-2</v>
       </c>
       <c r="V57">
@@ -5860,27 +5868,27 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4738220000000002E-2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9213779999999997E-2</v>
       </c>
       <c r="G58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3952E-2</v>
       </c>
       <c r="H58">
-        <f>E58+F58</f>
+        <f t="shared" si="10"/>
         <v>5.3952E-2</v>
       </c>
       <c r="V58">
@@ -5895,19 +5903,19 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6470712799999999E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7778087200000005E-2</v>
       </c>
       <c r="G59">
@@ -5915,7 +5923,7 @@
         <v>5.42488E-2</v>
       </c>
       <c r="H59">
-        <f>E59+F59</f>
+        <f t="shared" si="10"/>
         <v>5.42488E-2</v>
       </c>
       <c r="V59">
@@ -5930,19 +5938,19 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8299455200000002E-2</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.53461448E-2</v>
       </c>
       <c r="G60">
@@ -5950,7 +5958,7 @@
         <v>5.3645600000000002E-2</v>
       </c>
       <c r="H60">
-        <f>E60+F60</f>
+        <f t="shared" si="10"/>
         <v>5.3645600000000002E-2</v>
       </c>
       <c r="V60">
@@ -5965,27 +5973,27 @@
         <v>0.08</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0224447200000002E-2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3717952799999999E-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3942400000000001E-2</v>
       </c>
       <c r="H61">
-        <f>E61+F61</f>
+        <f t="shared" si="10"/>
         <v>5.3942400000000001E-2</v>
       </c>
       <c r="V61">
@@ -6000,19 +6008,19 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2245688799999996E-2</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2693511200000004E-2</v>
       </c>
       <c r="G62">
@@ -6020,7 +6028,7 @@
         <v>5.4939200000000001E-2</v>
       </c>
       <c r="H62">
-        <f>E62+F62</f>
+        <f t="shared" si="10"/>
         <v>5.4939200000000001E-2</v>
       </c>
       <c r="V62">
@@ -6035,27 +6043,27 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4363179999999998E-2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.957282E-2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3935999999999998E-2</v>
       </c>
       <c r="H63">
-        <f>E63+F63</f>
+        <f t="shared" si="10"/>
         <v>5.3935999999999998E-2</v>
       </c>
       <c r="V63">
@@ -6070,19 +6078,19 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38500000000000001</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6576920800000001E-2</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7455879200000005E-2</v>
       </c>
       <c r="G64">
@@ -6090,7 +6098,7 @@
         <v>5.4032800000000006E-2</v>
       </c>
       <c r="H64">
-        <f>E64+F64</f>
+        <f t="shared" si="10"/>
         <v>5.4032800000000006E-2</v>
       </c>
       <c r="V64">
@@ -6105,19 +6113,19 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39500000000000002</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8886911200000004E-2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5042688799999997E-2</v>
       </c>
       <c r="G65">
@@ -6125,7 +6133,7 @@
         <v>5.3929600000000001E-2</v>
       </c>
       <c r="H65">
-        <f>E65+F65</f>
+        <f t="shared" si="10"/>
         <v>5.3929600000000001E-2</v>
       </c>
       <c r="V65">
@@ -7072,6 +7080,232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9.454735464262265E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.9392022699178592E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-8.1480528633594198E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.8177463176159829E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.7706634397544055E-7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.7706634397544055E-7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.52315027780610834</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.47240790223188456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.9630779885357906E-5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.3846172216134323E-7</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.9807846229333347E-5</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.4097444913099625E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7.796975504147693E-5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>693.82602118375064</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.3106816454787281E-115</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.3941371491198577E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.4253518335000674E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.3941371491198577E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.4253518335000674E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-7.9974050530186487E-4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.1056963160270042E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.72329128143928167</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.47240790223189744</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-3.0130321532480945E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.4135511426443649E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-3.0130321532480945E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.4135511426443649E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -7297,7 +7531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E250"/>
   <sheetViews>
